--- a/lesson_1_Introduction_to_databases/lesson_1_Introduction_to_databases_task_1.xlsx
+++ b/lesson_1_Introduction_to_databases/lesson_1_Introduction_to_databases_task_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\development\gb\first_quarter\introduction_to_databases_seminars\introduction_to_databases_seminars_tasks\lesson_1_Introduction_to_databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E50683-FF12-4867-B39A-8483012D2779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF424C3C-1227-43F2-925B-B63413A4D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{5967C425-DC88-4514-95B6-B2D82A046A30}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>shift 1</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>scania</t>
+  </si>
+  <si>
+    <t>shift 3</t>
   </si>
 </sst>
 </file>
@@ -447,11 +450,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,20 +772,20 @@
   <dimension ref="B2:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="N4" sqref="N4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -800,7 +803,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -829,565 +832,565 @@
       <c r="N5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="N7" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="N8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="N9" s="1">
         <v>4</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="H11" s="1">
         <v>6</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="N11" s="1">
         <v>6</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="H12" s="1">
         <v>7</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="N12" s="1">
         <v>7</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="H13" s="1">
         <v>8</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="N13" s="1">
         <v>8</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="H14" s="1">
         <v>9</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="N14" s="1">
         <v>9</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="N15" s="1">
         <v>10</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="H16" s="1">
         <v>11</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="N16" s="1">
         <v>11</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="H17" s="1">
         <v>12</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="N17" s="1">
         <v>12</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="H18" s="1">
         <v>13</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="N18" s="1">
         <v>13</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="H19" s="1">
         <v>14</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="N19" s="1">
         <v>14</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="H20" s="1">
         <v>15</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="N20" s="1">
         <v>15</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="H21" s="1">
         <v>16</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="N21" s="1">
         <v>16</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="H22" s="1">
         <v>17</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
       <c r="N22" s="1">
         <v>17</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="H23" s="1">
         <v>18</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="N23" s="1">
         <v>18</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>19</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="N24" s="1">
         <v>19</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="H25" s="3" t="s">
         <v>91</v>
       </c>
@@ -1396,23 +1399,23 @@
       <c r="N25" s="1">
         <v>20</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="H26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1423,97 +1426,97 @@
       <c r="N26" s="1">
         <v>21</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="7"/>
       <c r="N27" s="1">
         <v>22</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>23</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="H28" s="1">
         <v>2</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="7"/>
       <c r="N28" s="1">
         <v>23</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="N29" s="1">
         <v>24</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="H30" s="3" t="s">
         <v>96</v>
       </c>
@@ -1525,23 +1528,23 @@
       <c r="N30" s="1">
         <v>25</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>26</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="H31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1557,23 +1560,23 @@
       <c r="N31" s="1">
         <v>26</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>27</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
       <c r="H32" s="1">
         <v>1</v>
       </c>
@@ -1589,23 +1592,23 @@
       <c r="N32" s="1">
         <v>27</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>28</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
       <c r="H33" s="1">
         <v>2</v>
       </c>
@@ -1621,23 +1624,23 @@
       <c r="N33" s="1">
         <v>28</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>29</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
       <c r="H34" s="1">
         <v>3</v>
       </c>
@@ -1653,32 +1656,32 @@
       <c r="N34" s="1">
         <v>29</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>30</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
       <c r="N35" s="1">
         <v>30</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -1857,6 +1860,84 @@
     <sortCondition ref="C35"/>
   </sortState>
   <mergeCells count="94">
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="B37:C37"/>
@@ -1873,84 +1954,6 @@
     <mergeCell ref="O34:R34"/>
     <mergeCell ref="O35:R35"/>
     <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
